--- a/game_records.xlsx
+++ b/game_records.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>survive</t>
   </si>
@@ -65,6 +65,22 @@
   </si>
   <si>
     <t>results from 256 games</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blocking prob cal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp prob cal (bug in deal prob cal)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,6 +152,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -465,10 +484,11 @@
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,25 +498,31 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>0.23976608187134499</v>
+        <v>0.77192982456140302</v>
       </c>
       <c r="C2" s="1">
-        <v>0.13450292397660801</v>
+        <v>9.3567251461988299E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>2411.3508771929801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3403.0233918128602</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -509,86 +535,99 @@
       <c r="D3" s="2">
         <v>4112.3333333333303</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.198830409356725</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3458.8596491228</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.29239766081871299</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.13450292397660801</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2666.9122807017502</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.28070175438596401</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.146198830409356</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2524.74853801169</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B7" s="1">
         <v>0.26900584795321603</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C7" s="1">
         <v>0.122807017543859</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D7" s="2">
         <v>2422.4444444444398</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.28070175438596401</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.146198830409356</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2524.74853801169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.77192982456140302</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9.3567251461988299E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3403.0233918128602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>0.33333333333333298</v>
+        <v>0.23976608187134499</v>
       </c>
       <c r="C8" s="1">
-        <v>0.198830409356725</v>
+        <v>0.13450292397660801</v>
       </c>
       <c r="D8" s="2">
-        <v>3458.8596491228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.29239766081871299</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.13450292397660801</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2666.9122807017502</v>
+        <v>2411.3508771929801</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F8">
+    <sortCondition descending="1" ref="B3"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -596,10 +635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -607,10 +646,11 @@
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,11 +660,14 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -637,8 +680,11 @@
       <c r="D2" s="2">
         <v>4037.5390625</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -651,8 +697,11 @@
       <c r="D3" s="2">
         <v>3704.828125</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -665,8 +714,11 @@
       <c r="D4" s="2">
         <v>3286.6171875</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -680,7 +732,7 @@
         <v>3002.640625</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -693,8 +745,11 @@
       <c r="D6" s="2">
         <v>2955.421875</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -707,8 +762,11 @@
       <c r="D7" s="2">
         <v>2879.33984375</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -721,8 +779,11 @@
       <c r="D8" s="2">
         <v>2283.9453125</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -735,9 +796,12 @@
       <c r="D9" s="2">
         <v>1849.40625</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E9">
+  <sortState ref="A2:F9">
     <sortCondition descending="1" ref="D5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
